--- a/Data/Logos.xlsx
+++ b/Data/Logos.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="N5WWyYsVVg8bKFEdtrgq7AR9M1xwhRtn0Lhc93rXuNY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="WiIacOCaG6duTKbCBQNL4qw6mnZpAJh+Crz5qRrtx1k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="1142">
   <si>
     <t>TEAM</t>
   </si>
@@ -1102,6 +1102,15 @@
   </si>
   <si>
     <t>https://content.sportslogos.net/logos/31/693/full/v5qq5g21hwe2twrfggxhgh8j1.png</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/31/694/full/3944_hartford_hawks-primary-2015.png</t>
   </si>
   <si>
     <t>Harvard</t>
@@ -3439,7 +3448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -3448,6 +3457,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -3466,12 +3480,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3686,7 +3703,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -6530,52 +6550,52 @@
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G110" s="1">
-        <v>560935.0</v>
-      </c>
-      <c r="H110" s="1" t="s">
+      <c r="F110" s="2" t="s">
         <v>363</v>
+      </c>
+      <c r="G110" s="2">
+        <v>505674.0</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>365</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G111" s="1">
-        <v>560937.0</v>
+        <v>560935.0</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>366</v>
@@ -6595,221 +6615,221 @@
         <v>367</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="G112" s="1">
-        <v>560637.0</v>
+        <v>560937.0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G113" s="1">
-        <v>560939.0</v>
+        <v>560637.0</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="G114" s="1">
-        <v>560941.0</v>
+        <v>560939.0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G115" s="1">
-        <v>560945.0</v>
+        <v>560941.0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G116" s="1">
+        <v>560945.0</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G116" s="1">
-        <v>560943.0</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>216</v>
+        <v>381</v>
       </c>
       <c r="G117" s="1">
-        <v>560947.0</v>
+        <v>560943.0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="G118" s="1">
-        <v>560951.0</v>
+        <v>560947.0</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G119" s="1">
-        <v>560949.0</v>
+        <v>560951.0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="G120" s="1">
-        <v>560955.0</v>
+        <v>560949.0</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>390</v>
@@ -6820,334 +6840,334 @@
         <v>391</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="G121" s="1">
+        <v>560955.0</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G121" s="1">
-        <v>560956.0</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G122" s="1">
-        <v>560953.0</v>
+        <v>560956.0</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="D123" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G123" s="1">
+        <v>560953.0</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G123" s="1">
-        <v>560631.0</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G124" s="1">
-        <v>560558.0</v>
+        <v>560631.0</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G125" s="1">
+        <v>560558.0</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G125" s="1">
-        <v>560557.0</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="G126" s="1">
-        <v>560562.0</v>
+        <v>560557.0</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
       <c r="G127" s="1">
-        <v>560567.0</v>
+        <v>560562.0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G128" s="1">
+        <v>560567.0</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G128" s="1">
-        <v>560565.0</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="G129" s="1">
-        <v>560624.0</v>
+        <v>560565.0</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G130" s="1">
+        <v>560624.0</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" s="1">
-        <v>560569.0</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G131" s="1">
-        <v>560573.0</v>
+        <v>560569.0</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G132" s="1">
+        <v>560573.0</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G132" s="1">
-        <v>560571.0</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="D133" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="G133" s="1">
-        <v>560575.0</v>
+        <v>560571.0</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>432</v>
@@ -7158,7 +7178,7 @@
         <v>433</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>433</v>
@@ -7170,192 +7190,192 @@
         <v>433</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G134" s="1">
-        <v>560579.0</v>
+        <v>560575.0</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>436</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G135" s="1">
-        <v>560577.0</v>
+        <v>560579.0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G136" s="1">
+        <v>560577.0</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G136" s="1">
-        <v>560616.0</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G137" s="1">
+        <v>560616.0</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" s="1">
-        <v>560581.0</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>447</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G138" s="1">
-        <v>560583.0</v>
+        <v>560581.0</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="G139" s="1">
-        <v>560585.0</v>
+        <v>560583.0</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="G140" s="1">
-        <v>560587.0</v>
+        <v>560585.0</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>454</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="G141" s="1">
-        <v>560589.0</v>
+        <v>560587.0</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>455</v>
@@ -7372,146 +7392,146 @@
         <v>456</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>456</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>160</v>
+        <v>381</v>
       </c>
       <c r="G142" s="1">
-        <v>561749.0</v>
+        <v>560589.0</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="G143" s="1">
-        <v>560591.0</v>
+        <v>561749.0</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="G144" s="1">
-        <v>560593.0</v>
+        <v>560591.0</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G145" s="1">
-        <v>560555.0</v>
+        <v>560593.0</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="G146" s="1">
-        <v>560641.0</v>
+        <v>560555.0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="G147" s="1">
-        <v>560678.0</v>
+        <v>560641.0</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>468</v>
@@ -7525,79 +7545,79 @@
         <v>470</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E148" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G148" s="1">
+        <v>560678.0</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G148" s="1">
-        <v>560596.0</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>473</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G149" s="1">
+        <v>560596.0</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G149" s="1">
-        <v>560721.0</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="G150" s="1">
-        <v>560598.0</v>
+        <v>560721.0</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>480</v>
@@ -7612,10 +7632,10 @@
         <v>480</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="G151" s="1">
-        <v>561145.0</v>
+        <v>560598.0</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>481</v>
@@ -7629,45 +7649,45 @@
         <v>483</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E152" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G152" s="1">
-        <v>560985.0</v>
+        <v>561145.0</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>487</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="G153" s="1">
-        <v>560602.0</v>
+        <v>560985.0</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>489</v>
@@ -7678,7 +7698,7 @@
         <v>490</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>490</v>
@@ -7690,322 +7710,322 @@
         <v>490</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="G154" s="1">
-        <v>560604.0</v>
+        <v>560602.0</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G155" s="1">
+        <v>560604.0</v>
+      </c>
+      <c r="H155" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G155" s="1">
-        <v>560735.0</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="D156" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G156" s="1">
+        <v>560735.0</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G156" s="1">
-        <v>560733.0</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G157" s="1">
+        <v>560733.0</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G157" s="1">
-        <v>560731.0</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>505</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G158" s="1">
-        <v>560600.0</v>
+        <v>560731.0</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G159" s="1">
-        <v>560736.0</v>
+        <v>560600.0</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="G160" s="1">
-        <v>560738.0</v>
+        <v>560736.0</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G161" s="1">
-        <v>560740.0</v>
+        <v>560738.0</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="G162" s="1">
-        <v>560742.0</v>
+        <v>560740.0</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="G163" s="1">
-        <v>560744.0</v>
+        <v>560742.0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="G164" s="1">
-        <v>560747.0</v>
+        <v>560744.0</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>520</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G165" s="1">
+        <v>560747.0</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G165" s="1">
-        <v>560750.0</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>524</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G166" s="1">
-        <v>560752.0</v>
+        <v>560750.0</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>526</v>
@@ -8019,105 +8039,105 @@
         <v>528</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G167" s="1">
+        <v>560752.0</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G167" s="1">
-        <v>560755.0</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>532</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>173</v>
+        <v>381</v>
       </c>
       <c r="G168" s="1">
-        <v>560756.0</v>
+        <v>560755.0</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G169" s="1">
-        <v>560758.0</v>
+        <v>560756.0</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G170" s="1">
-        <v>561096.0</v>
+        <v>560758.0</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>539</v>
@@ -8126,56 +8146,56 @@
         <v>539</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>539</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="G171" s="1">
-        <v>560763.0</v>
+        <v>561096.0</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>543</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G172" s="1">
-        <v>560761.0</v>
+        <v>560763.0</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>546</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>546</v>
@@ -8184,128 +8204,128 @@
         <v>546</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="G173" s="1">
-        <v>560767.0</v>
+        <v>560761.0</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>549</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G174" s="1">
+        <v>560767.0</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G174" s="1">
-        <v>560765.0</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="D175" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G175" s="1">
+        <v>560765.0</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G175" s="1">
-        <v>560769.0</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G176" s="1">
+        <v>560769.0</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G176" s="1">
-        <v>561253.0</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>560</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>389</v>
+        <v>190</v>
       </c>
       <c r="G177" s="1">
-        <v>560772.0</v>
+        <v>561253.0</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>563</v>
@@ -8314,10 +8334,10 @@
         <v>563</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>19</v>
+        <v>392</v>
       </c>
       <c r="G178" s="1">
-        <v>560777.0</v>
+        <v>560772.0</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>564</v>
@@ -8328,412 +8348,412 @@
         <v>565</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="E179" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G179" s="1">
-        <v>560773.0</v>
+        <v>560777.0</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" s="1">
+        <v>560773.0</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" s="1">
-        <v>560775.0</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>575</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G181" s="1">
-        <v>560780.0</v>
+        <v>560775.0</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>578</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182" s="1">
+        <v>560780.0</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G182" s="1">
-        <v>561141.0</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>581</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G183" s="1">
-        <v>560781.0</v>
+        <v>561141.0</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="G184" s="1">
-        <v>560785.0</v>
+        <v>560781.0</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>586</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G185" s="1">
-        <v>560783.0</v>
+        <v>560785.0</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G186" s="1">
+        <v>560783.0</v>
+      </c>
+      <c r="H186" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G186" s="1">
-        <v>560787.0</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G187" s="1">
+        <v>560787.0</v>
+      </c>
+      <c r="H187" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G187" s="1">
-        <v>560789.0</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G188" s="1">
+        <v>560789.0</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G188" s="1">
-        <v>560791.0</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G189" s="1">
+        <v>560791.0</v>
+      </c>
+      <c r="H189" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G189" s="1">
-        <v>560792.0</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G190" s="1">
-        <v>561199.0</v>
+        <v>560792.0</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="G191" s="1">
-        <v>560804.0</v>
+        <v>561199.0</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>610</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G192" s="1">
+        <v>560804.0</v>
+      </c>
+      <c r="H192" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G192" s="1">
-        <v>560806.0</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="G193" s="1">
-        <v>560810.0</v>
+        <v>560806.0</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>617</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G194" s="1">
-        <v>560958.0</v>
+        <v>560810.0</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>618</v>
@@ -8744,7 +8764,7 @@
         <v>619</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>619</v>
@@ -8756,102 +8776,102 @@
         <v>619</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G195" s="1">
-        <v>560964.0</v>
+        <v>560958.0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>622</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" s="1">
+        <v>560964.0</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G196" s="1">
-        <v>560963.0</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>625</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="G197" s="1">
-        <v>560966.0</v>
+        <v>560963.0</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="G198" s="1">
-        <v>560968.0</v>
+        <v>560966.0</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>630</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>630</v>
@@ -8860,24 +8880,24 @@
         <v>630</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>378</v>
+        <v>151</v>
       </c>
       <c r="G199" s="1">
-        <v>560970.0</v>
+        <v>560968.0</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>633</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>633</v>
@@ -8886,88 +8906,88 @@
         <v>633</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="G200" s="1">
-        <v>560961.0</v>
+        <v>560970.0</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>636</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" s="1">
+        <v>560961.0</v>
+      </c>
+      <c r="H201" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G201" s="1">
-        <v>560972.0</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="D202" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G202" s="1">
+        <v>560972.0</v>
+      </c>
+      <c r="H202" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G202" s="1">
-        <v>560647.0</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G203" s="1">
-        <v>560796.0</v>
+        <v>560647.0</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>645</v>
@@ -8981,85 +9001,85 @@
         <v>647</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>646</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="G204" s="1">
-        <v>560974.0</v>
+        <v>560796.0</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="E205" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G205" s="1">
+        <v>560974.0</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G205" s="1">
-        <v>560976.0</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="G206" s="1">
-        <v>560978.0</v>
+        <v>560976.0</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>660</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>660</v>
@@ -9068,114 +9088,114 @@
         <v>660</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="G207" s="1">
-        <v>560981.0</v>
+        <v>560978.0</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>663</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G208" s="1">
-        <v>560980.0</v>
+        <v>560981.0</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G209" s="1">
+        <v>560980.0</v>
+      </c>
+      <c r="H209" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G209" s="1">
-        <v>560628.0</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>670</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="G210" s="1">
-        <v>560983.0</v>
+        <v>560628.0</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="G211" s="1">
-        <v>560988.0</v>
+        <v>560983.0</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>674</v>
@@ -9192,952 +9212,952 @@
         <v>675</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>675</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="G212" s="1">
-        <v>560989.0</v>
+        <v>560988.0</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="E213" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G213" s="1">
-        <v>560992.0</v>
+        <v>560989.0</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G214" s="1">
+        <v>560992.0</v>
+      </c>
+      <c r="H214" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G214" s="1">
-        <v>560994.0</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" s="1">
+        <v>560994.0</v>
+      </c>
+      <c r="H215" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G215" s="1">
-        <v>560995.0</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G216" s="1">
+        <v>560995.0</v>
+      </c>
+      <c r="H216" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G216" s="1">
-        <v>560998.0</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>695</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>389</v>
+        <v>190</v>
       </c>
       <c r="G217" s="1">
-        <v>561002.0</v>
+        <v>560998.0</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>698</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G218" s="1">
+        <v>561002.0</v>
+      </c>
+      <c r="H218" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G218" s="1">
-        <v>561000.0</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="G219" s="1">
-        <v>561004.0</v>
+        <v>561000.0</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="G220" s="1">
-        <v>561006.0</v>
+        <v>561004.0</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="G221" s="1">
-        <v>561010.0</v>
+        <v>561006.0</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" s="1">
+        <v>561010.0</v>
+      </c>
+      <c r="H222" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G222" s="1">
-        <v>561008.0</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>711</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="G223" s="1">
-        <v>561014.0</v>
+        <v>561008.0</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>714</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G224" s="1">
-        <v>561012.0</v>
+        <v>561014.0</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>717</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G225" s="1">
-        <v>561016.0</v>
+        <v>561012.0</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="G226" s="1">
-        <v>561018.0</v>
+        <v>561016.0</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="G227" s="1">
-        <v>561022.0</v>
+        <v>561018.0</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G228" s="1">
-        <v>561020.0</v>
+        <v>561022.0</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>727</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="G229" s="1">
-        <v>561024.0</v>
+        <v>561020.0</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>730</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G230" s="1">
+        <v>561024.0</v>
+      </c>
+      <c r="H230" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G230" s="1">
-        <v>561029.0</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="F231" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G231" s="1">
+        <v>561029.0</v>
+      </c>
+      <c r="H231" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G231" s="1">
-        <v>561028.0</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="G232" s="1">
-        <v>561031.0</v>
+        <v>561028.0</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="G233" s="1">
-        <v>561033.0</v>
+        <v>561031.0</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="G234" s="1">
-        <v>561036.0</v>
+        <v>561033.0</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>744</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G235" s="1">
+        <v>561036.0</v>
+      </c>
+      <c r="H235" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G235" s="1">
-        <v>561035.0</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G236" s="1">
+        <v>561035.0</v>
+      </c>
+      <c r="H236" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G236" s="1">
-        <v>561038.0</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>751</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>751</v>
+      <c r="E237" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="G237" s="1">
-        <v>560618.0</v>
+        <v>561038.0</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="G238" s="1">
-        <v>561040.0</v>
+        <v>560618.0</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G239" s="1">
-        <v>561042.0</v>
+        <v>561040.0</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>389</v>
+        <v>120</v>
       </c>
       <c r="G240" s="1">
-        <v>561044.0</v>
+        <v>561042.0</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>760</v>
       </c>
       <c r="E241" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G241" s="1">
+        <v>561044.0</v>
+      </c>
+      <c r="H241" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G241" s="1">
-        <v>560552.0</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>763</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="G242" s="1">
-        <v>561047.0</v>
+        <v>560552.0</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G243" s="1">
-        <v>561049.0</v>
+        <v>561047.0</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="G244" s="1">
-        <v>561050.0</v>
+        <v>561049.0</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="G245" s="1">
-        <v>561052.0</v>
+        <v>561050.0</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G246" s="1">
-        <v>561055.0</v>
+        <v>561052.0</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="G247" s="1">
-        <v>561056.0</v>
+        <v>561055.0</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>776</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="G248" s="1">
-        <v>561059.0</v>
+        <v>561056.0</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>777</v>
@@ -10148,7 +10168,7 @@
         <v>778</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>778</v>
@@ -10160,62 +10180,62 @@
         <v>778</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>389</v>
+        <v>190</v>
       </c>
       <c r="G249" s="1">
-        <v>561061.0</v>
+        <v>561059.0</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>781</v>
       </c>
       <c r="C250" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G250" s="1">
+        <v>561061.0</v>
+      </c>
+      <c r="H250" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G250" s="1">
-        <v>560726.0</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="D251" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="G251" s="1">
-        <v>561063.0</v>
+        <v>560726.0</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>786</v>
@@ -10229,7 +10249,7 @@
         <v>788</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>787</v>
@@ -10238,10 +10258,10 @@
         <v>787</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="G252" s="1">
-        <v>561077.0</v>
+        <v>561063.0</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>789</v>
@@ -10252,10 +10272,10 @@
         <v>790</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>790</v>
@@ -10267,189 +10287,189 @@
         <v>225</v>
       </c>
       <c r="G253" s="1">
-        <v>561078.0</v>
+        <v>561077.0</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>793</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G254" s="1">
+        <v>561078.0</v>
+      </c>
+      <c r="H254" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G254" s="1">
-        <v>561080.0</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="E255" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G255" s="1">
+        <v>561080.0</v>
+      </c>
+      <c r="H255" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G255" s="1">
-        <v>561082.0</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G256" s="1">
+        <v>561082.0</v>
+      </c>
+      <c r="H256" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G256" s="1">
-        <v>561084.0</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>806</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="G257" s="1">
-        <v>561086.0</v>
+        <v>561084.0</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>346</v>
+        <v>176</v>
       </c>
       <c r="G258" s="1">
-        <v>561090.0</v>
+        <v>561086.0</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C259" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G259" s="1">
+        <v>561090.0</v>
+      </c>
+      <c r="H259" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G259" s="1">
-        <v>561088.0</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="D260" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>346</v>
+        <v>13</v>
       </c>
       <c r="G260" s="1">
-        <v>561091.0</v>
+        <v>561088.0</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>816</v>
@@ -10463,59 +10483,59 @@
         <v>818</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>817</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>13</v>
+        <v>346</v>
       </c>
       <c r="G261" s="1">
-        <v>561092.0</v>
+        <v>561091.0</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>822</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>346</v>
+        <v>13</v>
       </c>
       <c r="G262" s="1">
-        <v>561108.0</v>
+        <v>561092.0</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>825</v>
@@ -10524,10 +10544,10 @@
         <v>825</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>10</v>
+        <v>346</v>
       </c>
       <c r="G263" s="1">
-        <v>560620.0</v>
+        <v>561108.0</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>826</v>
@@ -10544,94 +10564,94 @@
         <v>827</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G264" s="1">
-        <v>561110.0</v>
+        <v>560620.0</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="G265" s="1">
-        <v>561112.0</v>
+        <v>561110.0</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>832</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D266" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G266" s="1">
+        <v>561112.0</v>
+      </c>
+      <c r="H266" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G266" s="1">
-        <v>561131.0</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>835</v>
-      </c>
       <c r="E267" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="G267" s="1">
-        <v>561133.0</v>
+        <v>561131.0</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>837</v>
@@ -10654,10 +10674,10 @@
         <v>838</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="G268" s="1">
-        <v>561113.0</v>
+        <v>561133.0</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>840</v>
@@ -10680,10 +10700,10 @@
         <v>841</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G269" s="1">
-        <v>561117.0</v>
+        <v>561113.0</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>843</v>
@@ -10697,279 +10717,279 @@
         <v>845</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>844</v>
       </c>
       <c r="E270" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G270" s="1">
+        <v>561117.0</v>
+      </c>
+      <c r="H270" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G270" s="1">
-        <v>561115.0</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>848</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G271" s="1">
-        <v>561121.0</v>
+        <v>561115.0</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G272" s="1">
-        <v>561119.0</v>
+        <v>561121.0</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>854</v>
-      </c>
       <c r="D273" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G273" s="1">
+        <v>561119.0</v>
+      </c>
+      <c r="H273" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G273" s="1">
-        <v>561122.0</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="E274" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G274" s="1">
+        <v>561122.0</v>
+      </c>
+      <c r="H274" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G274" s="1">
-        <v>561124.0</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>865</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>378</v>
+        <v>262</v>
       </c>
       <c r="G275" s="1">
-        <v>561126.0</v>
+        <v>561124.0</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>176</v>
+        <v>867</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>176</v>
+        <v>868</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>176</v>
+        <v>867</v>
       </c>
       <c r="D276" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F276" s="1" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
       <c r="G276" s="1">
-        <v>561136.0</v>
+        <v>561126.0</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>870</v>
+        <v>176</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G277" s="1">
+        <v>561136.0</v>
+      </c>
+      <c r="H277" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G277" s="1">
-        <v>561129.0</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G278" s="1">
+        <v>561129.0</v>
+      </c>
+      <c r="H278" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G278" s="1">
-        <v>561269.0</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G279" s="1">
+        <v>561269.0</v>
+      </c>
+      <c r="H279" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G279" s="1">
-        <v>561134.0</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="E280" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G280" s="1">
-        <v>561139.0</v>
+        <v>561134.0</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>884</v>
@@ -10983,7 +11003,7 @@
         <v>886</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>885</v>
@@ -10992,296 +11012,296 @@
         <v>885</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="G281" s="1">
-        <v>561067.0</v>
+        <v>561139.0</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G282" s="1">
+        <v>561067.0</v>
+      </c>
+      <c r="H282" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G282" s="1">
-        <v>561072.0</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="D283" s="1" t="s">
+      <c r="F283" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G283" s="1">
+        <v>561072.0</v>
+      </c>
+      <c r="H283" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G283" s="1">
-        <v>561074.0</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>899</v>
       </c>
       <c r="C284" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G284" s="1">
+        <v>561074.0</v>
+      </c>
+      <c r="H284" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G284" s="1">
-        <v>561106.0</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>904</v>
+      <c r="E285" s="2" t="s">
+        <v>905</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="G285" s="1">
-        <v>561147.0</v>
+        <v>561106.0</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>907</v>
       </c>
       <c r="C286" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G286" s="1">
+        <v>561147.0</v>
+      </c>
+      <c r="H286" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G286" s="1">
-        <v>561150.0</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>911</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G287" s="1">
-        <v>561152.0</v>
+        <v>561150.0</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="G288" s="1">
-        <v>561271.0</v>
+        <v>561152.0</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G289" s="1">
-        <v>561154.0</v>
+        <v>561271.0</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="G290" s="1">
-        <v>561156.0</v>
+        <v>561154.0</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>920</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G291" s="1">
+        <v>561156.0</v>
+      </c>
+      <c r="H291" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G291" s="1">
-        <v>561104.0</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>924</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>925</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G292" s="1">
-        <v>561172.0</v>
+        <v>561104.0</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>926</v>
@@ -11292,7 +11312,7 @@
         <v>927</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>927</v>
@@ -11304,114 +11324,114 @@
         <v>927</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="G293" s="1">
-        <v>561158.0</v>
+        <v>561172.0</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="G294" s="1">
-        <v>561166.0</v>
+        <v>561158.0</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>932</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G295" s="1">
+        <v>561166.0</v>
+      </c>
+      <c r="H295" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G295" s="1">
-        <v>561168.0</v>
-      </c>
-      <c r="H295" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>937</v>
-      </c>
       <c r="D296" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G296" s="1">
-        <v>561160.0</v>
+        <v>561168.0</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>939</v>
-      </c>
       <c r="D297" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G297" s="1">
-        <v>561162.0</v>
+        <v>561160.0</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>941</v>
@@ -11422,7 +11442,7 @@
         <v>942</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>942</v>
@@ -11434,36 +11454,36 @@
         <v>942</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="G298" s="1">
-        <v>561179.0</v>
+        <v>561162.0</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>945</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G299" s="1">
-        <v>561170.0</v>
+        <v>561179.0</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>946</v>
@@ -11474,74 +11494,74 @@
         <v>947</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G300" s="1">
+        <v>561170.0</v>
+      </c>
+      <c r="H300" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G300" s="1">
-        <v>561267.0</v>
-      </c>
-      <c r="H300" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="F301" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G301" s="1">
+        <v>561267.0</v>
+      </c>
+      <c r="H301" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G301" s="1">
-        <v>560639.0</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="E302" s="1" t="s">
-        <v>959</v>
+      <c r="E302" s="2" t="s">
+        <v>960</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
       <c r="G302" s="1">
-        <v>561174.0</v>
+        <v>560639.0</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>961</v>
@@ -11555,71 +11575,71 @@
         <v>963</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>962</v>
       </c>
       <c r="E303" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G303" s="1">
+        <v>561174.0</v>
+      </c>
+      <c r="H303" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G303" s="1">
-        <v>561143.0</v>
-      </c>
-      <c r="H303" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>966</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G304" s="1">
-        <v>561176.0</v>
+        <v>561143.0</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="G305" s="1">
-        <v>560834.0</v>
+        <v>561176.0</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>970</v>
@@ -11630,7 +11650,7 @@
         <v>971</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>971</v>
@@ -11642,166 +11662,166 @@
         <v>971</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="G306" s="1">
-        <v>561186.0</v>
+        <v>560834.0</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="G307" s="1">
-        <v>561188.0</v>
+        <v>561186.0</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="G308" s="1">
-        <v>561190.0</v>
+        <v>561188.0</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="G309" s="1">
-        <v>561192.0</v>
+        <v>561190.0</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>173</v>
       </c>
       <c r="G310" s="1">
-        <v>561194.0</v>
+        <v>561192.0</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>173</v>
       </c>
       <c r="G311" s="1">
-        <v>560659.0</v>
+        <v>561194.0</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>984</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="G312" s="1">
-        <v>560813.0</v>
+        <v>560659.0</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>985</v>
@@ -11827,7 +11847,7 @@
         <v>129</v>
       </c>
       <c r="G313" s="1">
-        <v>560815.0</v>
+        <v>560813.0</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>988</v>
@@ -11841,7 +11861,7 @@
         <v>989</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>989</v>
@@ -11853,33 +11873,33 @@
         <v>129</v>
       </c>
       <c r="G314" s="1">
-        <v>560819.0</v>
+        <v>560815.0</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>992</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G315" s="1">
-        <v>561100.0</v>
+        <v>560819.0</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>993</v>
@@ -11893,7 +11913,7 @@
         <v>995</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>994</v>
@@ -11905,7 +11925,7 @@
         <v>129</v>
       </c>
       <c r="G316" s="1">
-        <v>560727.0</v>
+        <v>561100.0</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>996</v>
@@ -11919,7 +11939,7 @@
         <v>998</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>997</v>
@@ -11928,62 +11948,62 @@
         <v>997</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="G317" s="1">
-        <v>560826.0</v>
+        <v>560727.0</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G318" s="1">
-        <v>560817.0</v>
+        <v>560826.0</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G319" s="1">
-        <v>560606.0</v>
+        <v>560817.0</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>1005</v>
@@ -12009,7 +12029,7 @@
         <v>32</v>
       </c>
       <c r="G320" s="1">
-        <v>560746.0</v>
+        <v>560606.0</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>1008</v>
@@ -12026,16 +12046,16 @@
         <v>1009</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1009</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="G321" s="1">
-        <v>560626.0</v>
+        <v>560746.0</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>1011</v>
@@ -12049,108 +12069,108 @@
         <v>1013</v>
       </c>
       <c r="C322" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G322" s="1">
+        <v>560626.0</v>
+      </c>
+      <c r="H322" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G322" s="1">
-        <v>560795.0</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G323" s="1">
+        <v>560795.0</v>
+      </c>
+      <c r="H323" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G323" s="1">
-        <v>560800.0</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C324" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G324" s="1">
+        <v>560800.0</v>
+      </c>
+      <c r="H324" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G324" s="1">
-        <v>560802.0</v>
-      </c>
-      <c r="H324" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="G325" s="1">
-        <v>560808.0</v>
+        <v>560802.0</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>1028</v>
@@ -12159,13 +12179,13 @@
         <v>1028</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G326" s="1">
-        <v>561127.0</v>
+        <v>560808.0</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>1029</v>
@@ -12176,178 +12196,178 @@
         <v>1030</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E327" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E327" s="1" t="s">
+      <c r="F327" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G327" s="1">
+        <v>561127.0</v>
+      </c>
+      <c r="H327" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G327" s="1">
-        <v>560633.0</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E328" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="F328" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G328" s="1">
+        <v>560633.0</v>
+      </c>
+      <c r="H328" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G328" s="1">
-        <v>561178.0</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>1040</v>
-      </c>
       <c r="D329" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="1">
-        <v>561026.0</v>
+        <v>561178.0</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G330" s="1">
-        <v>561204.0</v>
+        <v>561026.0</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="C331" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G331" s="1">
+        <v>561204.0</v>
+      </c>
+      <c r="H331" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G331" s="1">
-        <v>561202.0</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G332" s="1">
-        <v>561102.0</v>
+        <v>561202.0</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="1">
-        <v>560646.0</v>
+        <v>561102.0</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>1052</v>
@@ -12370,10 +12390,10 @@
         <v>1053</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="G334" s="1">
-        <v>561182.0</v>
+        <v>560646.0</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>1055</v>
@@ -12387,201 +12407,201 @@
         <v>1057</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="E335" s="2" t="s">
+      <c r="E335" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="G335" s="1">
-        <v>561184.0</v>
+        <v>561182.0</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>1059</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="G336" s="1">
-        <v>561206.0</v>
+        <v>561184.0</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="G337" s="1">
-        <v>561208.0</v>
+        <v>561206.0</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="G338" s="1">
-        <v>561214.0</v>
+        <v>561208.0</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="G339" s="1">
-        <v>561210.0</v>
+        <v>561214.0</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="G340" s="1">
-        <v>561212.0</v>
+        <v>561210.0</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G341" s="1">
-        <v>561220.0</v>
+        <v>561212.0</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G342" s="1">
-        <v>561218.0</v>
+        <v>561220.0</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>1074</v>
@@ -12604,10 +12624,10 @@
         <v>1075</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="G343" s="1">
-        <v>561216.0</v>
+        <v>561218.0</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>1077</v>
@@ -12618,7 +12638,7 @@
         <v>1078</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1078</v>
@@ -12630,140 +12650,140 @@
         <v>1078</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G344" s="1">
-        <v>561222.0</v>
+        <v>561216.0</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="G345" s="1">
-        <v>561224.0</v>
+        <v>561222.0</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G346" s="1">
-        <v>561228.0</v>
+        <v>561224.0</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>1085</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G347" s="1">
-        <v>561226.0</v>
+        <v>561228.0</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G348" s="1">
+        <v>561226.0</v>
+      </c>
+      <c r="H348" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G348" s="1">
-        <v>561230.0</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>1092</v>
-      </c>
       <c r="D349" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="G349" s="1">
-        <v>561232.0</v>
+        <v>561230.0</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>1094</v>
@@ -12780,360 +12800,385 @@
         <v>1095</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="G350" s="1">
-        <v>561235.0</v>
+        <v>561232.0</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D351" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G351" s="1">
+        <v>561235.0</v>
+      </c>
+      <c r="H351" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G351" s="1">
-        <v>561238.0</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D352" s="1" t="s">
+      <c r="E352" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G352" s="1">
+        <v>561238.0</v>
+      </c>
+      <c r="H352" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G352" s="1">
-        <v>561239.0</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D353" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D353" s="1" t="s">
+      <c r="E353" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G353" s="1">
+        <v>561239.0</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G353" s="1">
-        <v>561241.0</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D354" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="E354" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G354" s="1">
+        <v>561241.0</v>
+      </c>
+      <c r="H354" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G354" s="1">
-        <v>561243.0</v>
-      </c>
-      <c r="H354" s="1" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="C355" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="D355" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G355" s="1">
+        <v>561243.0</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G355" s="1">
-        <v>561245.0</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="G356" s="1">
-        <v>561247.0</v>
+        <v>561245.0</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="G357" s="1">
-        <v>561251.0</v>
+        <v>561247.0</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>176</v>
+        <v>392</v>
       </c>
       <c r="G358" s="1">
-        <v>560632.0</v>
+        <v>561251.0</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="C359" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G359" s="1">
+        <v>560632.0</v>
+      </c>
+      <c r="H359" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G359" s="1">
-        <v>561255.0</v>
-      </c>
-      <c r="H359" s="1" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="G360" s="1">
-        <v>561258.0</v>
+        <v>561255.0</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G361" s="1">
-        <v>561259.0</v>
+        <v>561258.0</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G362" s="1">
-        <v>561262.0</v>
+        <v>561259.0</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="C363" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G363" s="1">
+        <v>561262.0</v>
+      </c>
+      <c r="H363" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D363" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F363" s="1" t="s">
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F364" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G363" s="1">
+      <c r="G364" s="1">
         <v>561264.0</v>
       </c>
-      <c r="H363" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="364" ht="15.75" customHeight="1"/>
+      <c r="H364" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
     <row r="365" ht="15.75" customHeight="1"/>
     <row r="366" ht="15.75" customHeight="1"/>
     <row r="367" ht="15.75" customHeight="1"/>
@@ -13770,6 +13815,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Data/Logos.xlsx
+++ b/Data/Logos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1090">
   <si>
     <t>TEAM</t>
   </si>
@@ -3150,7 +3150,13 @@
     <t>West Georgia</t>
   </si>
   <si>
+    <t>W Georgia</t>
+  </si>
+  <si>
     <t>ASun</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ca/West_Georgia_Wolves_logo.svg/1920px-West_Georgia_Wolves_logo.svg.png</t>
   </si>
   <si>
     <t>West Virginia</t>
@@ -6961,6 +6967,9 @@
       <c r="A171" s="2" t="s">
         <v>514</v>
       </c>
+      <c r="B171" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="C171" s="2" t="s">
         <v>514</v>
       </c>
@@ -10558,311 +10567,317 @@
       <c r="A351" s="2" t="s">
         <v>1043</v>
       </c>
+      <c r="B351" s="2" t="s">
+        <v>1044</v>
+      </c>
       <c r="D351" s="2" t="s">
         <v>1043</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C358" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1"/>

--- a/Data/Logos.xlsx
+++ b/Data/Logos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1091">
   <si>
     <t>TEAM</t>
   </si>
@@ -1227,6 +1227,9 @@
     <t>IUPUI</t>
   </si>
   <si>
+    <t>IU Indianapolis</t>
+  </si>
+  <si>
     <t>https://content.sportslogos.net/logos/32/703/full/iupui_jaguars_logo_primary_2017_sportslogosnet-9497.png</t>
   </si>
   <si>
@@ -2730,7 +2733,7 @@
     <t>AM Commerce</t>
   </si>
   <si>
-    <t>Texas A&amp;M-Commerce</t>
+    <t>East Texas A&amp;M</t>
   </si>
   <si>
     <t>https://content.sportslogos.net/logos/30/6863/full/a&amp;m-commerce_lions_logo_primary_2013_sportslogosnet-6740.png</t>
@@ -3773,8 +3776,8 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
@@ -6153,2954 +6156,2954 @@
       <c r="C130" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>402</v>
+      <c r="D130" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="D134" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="D148" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D154" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="D157" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="D167" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="D177" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="D196" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="D204" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="D205" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="D213" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="D214" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="D215" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="D216" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="D217" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="D218" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="D232" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="D250" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>752</v>
-      </c>
       <c r="D253" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="D262" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="D268" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="D269" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="D270" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="D271" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="D275" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>828</v>
-      </c>
       <c r="D277" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
@@ -9120,1764 +9123,1764 @@
         <v>22</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>832</v>
-      </c>
       <c r="D279" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>835</v>
-      </c>
       <c r="D280" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>838</v>
-      </c>
       <c r="D281" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>841</v>
-      </c>
       <c r="D282" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="D284" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>878</v>
-      </c>
       <c r="D294" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>893</v>
-      </c>
       <c r="D299" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C301" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="D302" s="1" t="s">
         <v>904</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>905</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="D304" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>920</v>
-      </c>
       <c r="D307" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C314" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C315" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>943</v>
-      </c>
       <c r="D317" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="D321" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>958</v>
-      </c>
       <c r="D322" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="D323" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="D329" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>985</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>1001</v>
-      </c>
       <c r="D335" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>1004</v>
-      </c>
       <c r="D336" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D344" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>1026</v>
-      </c>
       <c r="D345" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D351" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="D351" s="2" t="s">
-        <v>1043</v>
-      </c>
       <c r="E351" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B352" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="D352" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="D353" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="D354" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="D355" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>1059</v>
-      </c>
       <c r="D356" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1"/>

--- a/Data/Logos.xlsx
+++ b/Data/Logos.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qiaYlqSHv/Xp1uFCzmmSQ+LStCSll70P7qHEw0vFDi4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FLZyQrvu4hXTxhi2hKNmLt31ZxkiVPhR5jjScUli0rM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="1046">
   <si>
     <t>TEAM</t>
   </si>
@@ -1749,6 +1749,12 @@
     <t>https://content.sportslogos.net/logos/33/768/full/new_hampshire_wildcats_logo_primary_2021_sportslogosnet-9635.png</t>
   </si>
   <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_Haven_Chargers#/media/File:New_Haven_Chargers_secondary_logo.svg</t>
+  </si>
+  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -2475,9 +2481,6 @@
     <t>St Francis PA</t>
   </si>
   <si>
-    <t>St. Francis (PA)</t>
-  </si>
-  <si>
     <t>https://content.sportslogos.net/logos/34/821/full/saint_francis_red_flash_logo_primary_2018_sportslogosnet-7517.png</t>
   </si>
   <si>
@@ -2625,16 +2628,13 @@
     <t>https://content.sportslogos.net/logos/34/866/full/texas_a&amp;m_aggies_logo_primary_2021_sportslogosnet-5634.png</t>
   </si>
   <si>
-    <t>Texas A&amp;M Commerce</t>
+    <t>East Texas A&amp;M</t>
   </si>
   <si>
     <t>E Texas A&amp;M</t>
   </si>
   <si>
     <t>AM Commerce</t>
-  </si>
-  <si>
-    <t>East Texas A&amp;M</t>
   </si>
   <si>
     <t>https://content.sportslogos.net/logos/30/6863/full/a&amp;m-commerce_lions_logo_primary_2013_sportslogosnet-6740.png</t>
@@ -3160,7 +3160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -3177,6 +3177,9 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3192,7 +3195,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3204,6 +3207,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -7353,22 +7359,16 @@
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="1" t="s">
+      <c r="E197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F197" s="5" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7376,28 +7376,28 @@
       <c r="A198" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>583</v>
@@ -7406,7 +7406,7 @@
         <v>583</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>351</v>
+        <v>269</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>584</v>
@@ -7426,7 +7426,7 @@
         <v>585</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>586</v>
@@ -7437,36 +7437,36 @@
         <v>587</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>591</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>592</v>
@@ -7477,27 +7477,27 @@
         <v>593</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>597</v>
@@ -7506,27 +7506,27 @@
         <v>597</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>600</v>
-      </c>
       <c r="C205" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>601</v>
@@ -7536,77 +7536,77 @@
       <c r="A206" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>603</v>
+      <c r="B206" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>602</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="D207" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C207" s="1" t="s">
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E207" s="1" t="s">
+      <c r="B208" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="F208" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C208" s="1" t="s">
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>615</v>
@@ -7617,76 +7617,76 @@
         <v>616</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>620</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>624</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>627</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>628</v>
@@ -7696,8 +7696,8 @@
       <c r="A214" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>630</v>
+      <c r="B214" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>629</v>
@@ -7706,107 +7706,107 @@
         <v>629</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="C215" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>255</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>644</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>645</v>
@@ -7817,27 +7817,27 @@
         <v>646</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>650</v>
@@ -7846,7 +7846,7 @@
         <v>650</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>651</v>
@@ -7866,7 +7866,7 @@
         <v>652</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>653</v>
@@ -7886,7 +7886,7 @@
         <v>654</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>655</v>
@@ -7897,27 +7897,27 @@
         <v>656</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>660</v>
@@ -7926,7 +7926,7 @@
         <v>660</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>661</v>
@@ -7937,27 +7937,27 @@
         <v>662</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>666</v>
@@ -7966,7 +7966,7 @@
         <v>666</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>667</v>
@@ -7986,7 +7986,7 @@
         <v>668</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>669</v>
@@ -8006,7 +8006,7 @@
         <v>670</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>671</v>
@@ -8017,27 +8017,27 @@
         <v>672</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>676</v>
@@ -8046,7 +8046,7 @@
         <v>676</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>677</v>
@@ -8056,48 +8056,48 @@
       <c r="A232" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>678</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>678</v>
       </c>
       <c r="D232" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="E233" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>685</v>
@@ -8106,7 +8106,7 @@
         <v>685</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>686</v>
@@ -8126,7 +8126,7 @@
         <v>687</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>688</v>
@@ -8146,7 +8146,7 @@
         <v>689</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>690</v>
@@ -8157,56 +8157,56 @@
         <v>691</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>695</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>699</v>
+      <c r="D239" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>700</v>
@@ -8222,11 +8222,11 @@
       <c r="C240" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="2" t="s">
         <v>701</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>702</v>
@@ -8246,7 +8246,7 @@
         <v>703</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>704</v>
@@ -8266,7 +8266,7 @@
         <v>705</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>706</v>
@@ -8283,30 +8283,30 @@
         <v>707</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="E244" s="1" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>711</v>
@@ -8326,7 +8326,7 @@
         <v>712</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>713</v>
@@ -8346,7 +8346,7 @@
         <v>714</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>715</v>
@@ -8366,7 +8366,7 @@
         <v>716</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>717</v>
@@ -8386,7 +8386,7 @@
         <v>718</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>719</v>
@@ -8406,7 +8406,7 @@
         <v>720</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>721</v>
@@ -8416,7 +8416,7 @@
       <c r="A250" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="1" t="s">
         <v>722</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -8426,7 +8426,7 @@
         <v>722</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>723</v>
@@ -8436,7 +8436,7 @@
       <c r="A251" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="2" t="s">
         <v>724</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -8446,7 +8446,7 @@
         <v>724</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>725</v>
@@ -8456,28 +8456,28 @@
       <c r="A252" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>730</v>
@@ -8486,7 +8486,7 @@
         <v>730</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>731</v>
@@ -8500,30 +8500,30 @@
         <v>732</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>732</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>735</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>209</v>
@@ -8536,77 +8536,77 @@
       <c r="A256" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>737</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="D258" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>747</v>
+      <c r="D259" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>748</v>
@@ -8626,7 +8626,7 @@
         <v>749</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>750</v>
@@ -8637,27 +8637,27 @@
         <v>751</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F261" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>755</v>
@@ -8666,7 +8666,7 @@
         <v>755</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>756</v>
@@ -8676,37 +8676,37 @@
       <c r="A263" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F263" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>762</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>763</v>
@@ -8723,30 +8723,30 @@
         <v>764</v>
       </c>
       <c r="D265" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F265" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>767</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>768</v>
@@ -8766,7 +8766,7 @@
         <v>769</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>770</v>
@@ -8777,7 +8777,7 @@
         <v>771</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>771</v>
@@ -8786,27 +8786,27 @@
         <v>771</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="C269" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>775</v>
@@ -8816,8 +8816,8 @@
       <c r="A270" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>777</v>
+      <c r="B270" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>776</v>
@@ -8826,27 +8826,27 @@
         <v>776</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>779</v>
-      </c>
       <c r="C271" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>780</v>
@@ -8857,27 +8857,27 @@
         <v>781</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>785</v>
@@ -8886,7 +8886,7 @@
         <v>785</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>786</v>
@@ -8897,27 +8897,27 @@
         <v>787</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>791</v>
@@ -8926,127 +8926,127 @@
         <v>791</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="C276" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F276" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="E277" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F277" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>162</v>
+        <v>801</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>162</v>
+        <v>801</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>803</v>
+        <v>162</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F280" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>809</v>
-      </c>
       <c r="C281" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>810</v>
@@ -9056,8 +9056,8 @@
       <c r="A282" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>812</v>
+      <c r="B282" s="2" t="s">
+        <v>811</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>811</v>
@@ -9066,1690 +9066,1709 @@
         <v>811</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="C283" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F283" s="1" t="s">
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="2" t="s">
+      <c r="B284" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>817</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="E284" s="1" t="s">
+      <c r="B285" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F284" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="1" t="s">
+      <c r="F285" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F291" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F292" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F293" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F295" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F296" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F297" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F300" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F301" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B302" s="2" t="s">
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="B303" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="C303" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="E302" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>876</v>
-      </c>
       <c r="D303" s="2" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>877</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>888</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>923</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>926</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>937</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>269</v>
+        <v>8</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>966</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>968</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>968</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>980</v>
+        <v>29</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>982</v>
+        <v>111</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>981</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>985</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>991</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="E350" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F350" s="1" t="s">
+      <c r="F351" s="1" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="2" t="s">
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D352" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="E351" s="2" t="s">
+      <c r="E352" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="F351" s="3" t="s">
+      <c r="F352" s="3" t="s">
         <v>1004</v>
-      </c>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1005</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1020</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1023</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>1037</v>
+        <v>176</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>1039</v>
+        <v>11</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B367" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E366" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F366" s="1" t="s">
+      <c r="F367" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1"/>
     <row r="368" ht="15.75" customHeight="1"/>
     <row r="369" ht="15.75" customHeight="1"/>
     <row r="370" ht="15.75" customHeight="1"/>
@@ -11386,10 +11405,14 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="/media/File:New_Haven_Chargers_secondary_logo.svg" ref="F197"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Logos.xlsx
+++ b/Data/Logos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1046">
   <si>
     <t>TEAM</t>
   </si>
@@ -7360,6 +7360,9 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>577</v>
       </c>
       <c r="D197" s="2" t="s">
